--- a/assets/uploads/Formato_precios.xlsx
+++ b/assets/uploads/Formato_precios.xlsx
@@ -6138,7 +6138,10 @@
   <dimension ref="A1:D1704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/assets/uploads/Formato_precios.xlsx
+++ b/assets/uploads/Formato_precios.xlsx
@@ -6131,10 +6131,10 @@
   <dimension ref="A1:D1704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D986" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B1002" sqref="B1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16083,7 +16083,7 @@
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1002" s="46">
-        <v>7502049021</v>
+        <v>7502049024</v>
       </c>
       <c r="B1002" s="15" t="s">
         <v>1761</v>

--- a/assets/uploads/Formato_precios.xlsx
+++ b/assets/uploads/Formato_precios.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
